--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKADM061-001 - Setup Kantor - Ubah Data.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKADM061-001 - Setup Kantor - Ubah Data.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Excel DPLK Newest admin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DPLK 2\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2881D1C2-35AE-4A00-A3FD-226087E3BCE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DPLKADM061-001" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>SIDEBAR_MENU</t>
   </si>
@@ -105,15 +106,7 @@
     <t>Cash Management System</t>
   </si>
   <si>
-    <t>DOA</t>
-  </si>
-  <si>
     <t>VERIFIKASI</t>
-  </si>
-  <si>
-    <t>Username : 32074,
-Password : bni1234,
-Channel : 7 DOA</t>
   </si>
   <si>
     <t>DPLKADM061-001</t>
@@ -125,8 +118,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -519,14 +512,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" bestFit="1" customWidth="1"/>
@@ -551,7 +544,7 @@
     <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -610,18 +603,18 @@
         <v>26</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="45">
+    <row r="2" spans="1:21" ht="45" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>14</v>
@@ -632,8 +625,13 @@
       <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>30</v>
+      <c r="F2" s="4" t="str">
+        <f xml:space="preserve"> "Username : "&amp;G2&amp;",
+Password : "&amp;H2&amp;",
+Channel : "&amp;R2</f>
+        <v>Username : 32074,
+Password : bni1234,
+Channel : 7</v>
       </c>
       <c r="G2" s="4">
         <v>32074</v>
@@ -662,18 +660,18 @@
       </c>
       <c r="P2" s="7"/>
       <c r="Q2" s="6"/>
-      <c r="R2" s="6" t="s">
-        <v>28</v>
+      <c r="R2" s="6">
+        <v>7</v>
       </c>
       <c r="S2" s="6"/>
       <c r="T2" s="6"/>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
